--- a/static/pedido.xlsx
+++ b/static/pedido.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -424,88 +424,80 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>Código</t>
+          <t>codigo</t>
         </is>
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>Descrição</t>
+          <t>descricao</t>
         </is>
       </c>
       <c r="C1" t="inlineStr">
         <is>
-          <t>Compra</t>
+          <t>compra</t>
         </is>
       </c>
       <c r="D1" t="inlineStr">
         <is>
-          <t>Valor final</t>
+          <t>vl final</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>vl sugestao</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>013956</t>
+          <t>013699</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>MARTELO 27 MM UNHA POLIDO FIBRA MTX</t>
+          <t>FITA DUPLA FACE FIXA FORTE 24X2 1KG 3M</t>
         </is>
       </c>
       <c r="C2" t="n">
         <v>3</v>
       </c>
       <c r="D2" t="inlineStr"/>
+      <c r="E2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>012038</t>
+          <t>013305</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>PENEIRA ARO METAL 55 AREIA VITORIA</t>
+          <t>FITA DUPLA FACE FIXA FORTE 24X2M 5KG 3M</t>
         </is>
       </c>
       <c r="C3" t="n">
         <v>3</v>
       </c>
       <c r="D3" t="inlineStr"/>
+      <c r="E3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>012037</t>
+          <t>009544</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>PENEIRA ARO METAL 55 ARROZ VITORIA</t>
+          <t>MANTA ADES 60CM</t>
         </is>
       </c>
       <c r="C4" t="n">
         <v>3</v>
       </c>
       <c r="D4" t="inlineStr"/>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>009343</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>PRUMO METAL 500GR REF-2263 RAMADA</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>3</v>
-      </c>
-      <c r="D5" t="inlineStr"/>
+      <c r="E4" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/static/pedido.xlsx
+++ b/static/pedido.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -451,12 +451,12 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>013699</t>
+          <t>000356</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>FITA DUPLA FACE FIXA FORTE 24X2 1KG 3M</t>
+          <t>REGISTRO PRESSAO 1416 1 / 2 C 50 LIDER-064</t>
         </is>
       </c>
       <c r="C2" t="n">
@@ -468,36 +468,19 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>013305</t>
+          <t>001495</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>FITA DUPLA FACE FIXA FORTE 24X2M 5KG 3M</t>
+          <t>REGISTRO PRESSAO 1416 3 / 4 C 23 LIDER-057</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D3" t="inlineStr"/>
       <c r="E3" t="inlineStr"/>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>009544</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>MANTA ADES 60CM</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>3</v>
-      </c>
-      <c r="D4" t="inlineStr"/>
-      <c r="E4" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/static/pedido.xlsx
+++ b/static/pedido.xlsx
@@ -451,16 +451,16 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>000356</t>
+          <t>007428</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>REGISTRO PRESSAO 1416 1 / 2 C 50 LIDER-064</t>
+          <t>SELADOR ACRI 18L EUCATEX</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>3</v>
+        <v>25</v>
       </c>
       <c r="D2" t="inlineStr"/>
       <c r="E2" t="inlineStr"/>
@@ -468,16 +468,16 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>001495</t>
+          <t>011274</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>REGISTRO PRESSAO 1416 3 / 4 C 23 LIDER-057</t>
+          <t>SELADORA MADEIRA 900ML EXTRA EUCATEX</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D3" t="inlineStr"/>
       <c r="E3" t="inlineStr"/>

--- a/static/pedido.xlsx
+++ b/static/pedido.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:E21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -451,16 +451,16 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>007428</t>
+          <t>013859</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>SELADOR ACRI 18L EUCATEX</t>
+          <t>ALICATE UNIV 8 UPFER</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>25</v>
+        <v>3</v>
       </c>
       <c r="D2" t="inlineStr"/>
       <c r="E2" t="inlineStr"/>
@@ -468,19 +468,325 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>011274</t>
+          <t>006778</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>SELADORA MADEIRA 900ML EXTRA EUCATEX</t>
+          <t>COLA INSTANTANEA 20GR TEKBOND 793</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="D3" t="inlineStr"/>
       <c r="E3" t="inlineStr"/>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>000035</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>COLA MADEIRA 90GR ALMAFLEX</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>10</v>
+      </c>
+      <c r="D4" t="inlineStr"/>
+      <c r="E4" t="inlineStr"/>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>000607</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>COLHER PEDREIRO 08 PACETTA</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>5</v>
+      </c>
+      <c r="D5" t="inlineStr"/>
+      <c r="E5" t="inlineStr"/>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>001255</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>IMPER.SIKATOP 100 18KG</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>7</v>
+      </c>
+      <c r="D6" t="inlineStr"/>
+      <c r="E6" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>000470</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>LIXA AGUA GRAO 100</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>67</v>
+      </c>
+      <c r="D7" t="inlineStr"/>
+      <c r="E7" t="inlineStr"/>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>000476</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>LIXA FERRO GRAO 060</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>52</v>
+      </c>
+      <c r="D8" t="inlineStr"/>
+      <c r="E8" t="inlineStr"/>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>000477</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>LIXA FERRO GRAO 080</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>14</v>
+      </c>
+      <c r="D9" t="inlineStr"/>
+      <c r="E9" t="inlineStr"/>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>000478</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>LIXA FERRO GRAO 100</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
+        <v>35</v>
+      </c>
+      <c r="D10" t="inlineStr"/>
+      <c r="E10" t="inlineStr"/>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>001713</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>LIXA PAREDE MADEIRA GRAO 080</t>
+        </is>
+      </c>
+      <c r="C11" t="n">
+        <v>105</v>
+      </c>
+      <c r="D11" t="inlineStr"/>
+      <c r="E11" t="inlineStr"/>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>001648</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>LIXA PAREDE MADEIRA GRAO 180</t>
+        </is>
+      </c>
+      <c r="C12" t="n">
+        <v>54</v>
+      </c>
+      <c r="D12" t="inlineStr"/>
+      <c r="E12" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>001013</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>PREGO TELHEIRO 500G (18X30)-(18X36)</t>
+        </is>
+      </c>
+      <c r="C13" t="n">
+        <v>31</v>
+      </c>
+      <c r="D13" t="inlineStr"/>
+      <c r="E13" t="inlineStr"/>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>003225</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>REGISTRO PRESSAO DOCOL BASE 3/4</t>
+        </is>
+      </c>
+      <c r="C14" t="n">
+        <v>5</v>
+      </c>
+      <c r="D14" t="inlineStr"/>
+      <c r="E14" t="inlineStr"/>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>013724</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>TINTA ACRI UNILAR ECON 3,6LT BRANCO GELO</t>
+        </is>
+      </c>
+      <c r="C15" t="n">
+        <v>2</v>
+      </c>
+      <c r="D15" t="inlineStr"/>
+      <c r="E15" t="inlineStr"/>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>013727</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>TINTA ACRI UNILAR ECON 3,6LT BRANCO NEVE</t>
+        </is>
+      </c>
+      <c r="C16" t="n">
+        <v>3</v>
+      </c>
+      <c r="D16" t="inlineStr"/>
+      <c r="E16" t="inlineStr"/>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>013731</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>TINTA ACRI UNILAR ECON 3,6LT VERDE MENTA</t>
+        </is>
+      </c>
+      <c r="C17" t="n">
+        <v>1</v>
+      </c>
+      <c r="D17" t="inlineStr"/>
+      <c r="E17" t="inlineStr"/>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>013799</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>TINTA ACRI UNILAR ECONOMICA 3,6LT PEROLA</t>
+        </is>
+      </c>
+      <c r="C18" t="n">
+        <v>3</v>
+      </c>
+      <c r="D18" t="inlineStr"/>
+      <c r="E18" t="inlineStr"/>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>013725</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>TINTA ACRI UNILAR ECONOMICA 18LT BRANCO GELO</t>
+        </is>
+      </c>
+      <c r="C19" t="n">
+        <v>2</v>
+      </c>
+      <c r="D19" t="inlineStr"/>
+      <c r="E19" t="inlineStr"/>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>013726</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>TINTA ACRI UNILAR ECONOMICA 18LT BRANCO NEVE</t>
+        </is>
+      </c>
+      <c r="C20" t="n">
+        <v>9</v>
+      </c>
+      <c r="D20" t="inlineStr"/>
+      <c r="E20" t="inlineStr"/>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>000376</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>TORNEIRA PLAST 1128 JARD BICO PRETA HERC</t>
+        </is>
+      </c>
+      <c r="C21" t="n">
+        <v>58</v>
+      </c>
+      <c r="D21" t="inlineStr"/>
+      <c r="E21" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/static/pedido.xlsx
+++ b/static/pedido.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E21"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -451,16 +451,16 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>013859</t>
+          <t>002792</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>ALICATE UNIV 8 UPFER</t>
+          <t>RUFO 15 CM X 0,43 2 MT</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>3</v>
+        <v>27</v>
       </c>
       <c r="D2" t="inlineStr"/>
       <c r="E2" t="inlineStr"/>
@@ -468,325 +468,19 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>006778</t>
+          <t>002215</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>COLA INSTANTANEA 20GR TEKBOND 793</t>
+          <t>RUFO 20 CM X 0,43 2 MT</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="D3" t="inlineStr"/>
       <c r="E3" t="inlineStr"/>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>000035</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>COLA MADEIRA 90GR ALMAFLEX</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>10</v>
-      </c>
-      <c r="D4" t="inlineStr"/>
-      <c r="E4" t="inlineStr"/>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>000607</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>COLHER PEDREIRO 08 PACETTA</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>5</v>
-      </c>
-      <c r="D5" t="inlineStr"/>
-      <c r="E5" t="inlineStr"/>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>001255</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>IMPER.SIKATOP 100 18KG</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>7</v>
-      </c>
-      <c r="D6" t="inlineStr"/>
-      <c r="E6" t="inlineStr"/>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>000470</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>LIXA AGUA GRAO 100</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>67</v>
-      </c>
-      <c r="D7" t="inlineStr"/>
-      <c r="E7" t="inlineStr"/>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>000476</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>LIXA FERRO GRAO 060</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
-        <v>52</v>
-      </c>
-      <c r="D8" t="inlineStr"/>
-      <c r="E8" t="inlineStr"/>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>000477</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>LIXA FERRO GRAO 080</t>
-        </is>
-      </c>
-      <c r="C9" t="n">
-        <v>14</v>
-      </c>
-      <c r="D9" t="inlineStr"/>
-      <c r="E9" t="inlineStr"/>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>000478</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>LIXA FERRO GRAO 100</t>
-        </is>
-      </c>
-      <c r="C10" t="n">
-        <v>35</v>
-      </c>
-      <c r="D10" t="inlineStr"/>
-      <c r="E10" t="inlineStr"/>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>001713</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>LIXA PAREDE MADEIRA GRAO 080</t>
-        </is>
-      </c>
-      <c r="C11" t="n">
-        <v>105</v>
-      </c>
-      <c r="D11" t="inlineStr"/>
-      <c r="E11" t="inlineStr"/>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>001648</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>LIXA PAREDE MADEIRA GRAO 180</t>
-        </is>
-      </c>
-      <c r="C12" t="n">
-        <v>54</v>
-      </c>
-      <c r="D12" t="inlineStr"/>
-      <c r="E12" t="inlineStr"/>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>001013</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>PREGO TELHEIRO 500G (18X30)-(18X36)</t>
-        </is>
-      </c>
-      <c r="C13" t="n">
-        <v>31</v>
-      </c>
-      <c r="D13" t="inlineStr"/>
-      <c r="E13" t="inlineStr"/>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>003225</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>REGISTRO PRESSAO DOCOL BASE 3/4</t>
-        </is>
-      </c>
-      <c r="C14" t="n">
-        <v>5</v>
-      </c>
-      <c r="D14" t="inlineStr"/>
-      <c r="E14" t="inlineStr"/>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>013724</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>TINTA ACRI UNILAR ECON 3,6LT BRANCO GELO</t>
-        </is>
-      </c>
-      <c r="C15" t="n">
-        <v>2</v>
-      </c>
-      <c r="D15" t="inlineStr"/>
-      <c r="E15" t="inlineStr"/>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>013727</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>TINTA ACRI UNILAR ECON 3,6LT BRANCO NEVE</t>
-        </is>
-      </c>
-      <c r="C16" t="n">
-        <v>3</v>
-      </c>
-      <c r="D16" t="inlineStr"/>
-      <c r="E16" t="inlineStr"/>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>013731</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>TINTA ACRI UNILAR ECON 3,6LT VERDE MENTA</t>
-        </is>
-      </c>
-      <c r="C17" t="n">
-        <v>1</v>
-      </c>
-      <c r="D17" t="inlineStr"/>
-      <c r="E17" t="inlineStr"/>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>013799</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>TINTA ACRI UNILAR ECONOMICA 3,6LT PEROLA</t>
-        </is>
-      </c>
-      <c r="C18" t="n">
-        <v>3</v>
-      </c>
-      <c r="D18" t="inlineStr"/>
-      <c r="E18" t="inlineStr"/>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>013725</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>TINTA ACRI UNILAR ECONOMICA 18LT BRANCO GELO</t>
-        </is>
-      </c>
-      <c r="C19" t="n">
-        <v>2</v>
-      </c>
-      <c r="D19" t="inlineStr"/>
-      <c r="E19" t="inlineStr"/>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>013726</t>
-        </is>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>TINTA ACRI UNILAR ECONOMICA 18LT BRANCO NEVE</t>
-        </is>
-      </c>
-      <c r="C20" t="n">
-        <v>9</v>
-      </c>
-      <c r="D20" t="inlineStr"/>
-      <c r="E20" t="inlineStr"/>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>000376</t>
-        </is>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>TORNEIRA PLAST 1128 JARD BICO PRETA HERC</t>
-        </is>
-      </c>
-      <c r="C21" t="n">
-        <v>58</v>
-      </c>
-      <c r="D21" t="inlineStr"/>
-      <c r="E21" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/static/pedido.xlsx
+++ b/static/pedido.xlsx
@@ -451,16 +451,16 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>002792</t>
+          <t>009618</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>RUFO 15 CM X 0,43 2 MT</t>
+          <t>CAIXA PASSAGEM 27X27X25 10L MALLTON</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>27</v>
+        <v>3</v>
       </c>
       <c r="D2" t="inlineStr"/>
       <c r="E2" t="inlineStr"/>
@@ -468,16 +468,16 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>002215</t>
+          <t>011045</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>RUFO 20 CM X 0,43 2 MT</t>
+          <t>CAIXA PASSAGEM PVA 44X35X41 48L LIEGE/MALLTON</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>28</v>
+        <v>4</v>
       </c>
       <c r="D3" t="inlineStr"/>
       <c r="E3" t="inlineStr"/>

--- a/static/pedido.xlsx
+++ b/static/pedido.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -451,16 +451,16 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>009618</t>
+          <t>002316</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>CAIXA PASSAGEM 27X27X25 10L MALLTON</t>
+          <t>SPRAY COLOR 350ML AZUL ESCURO TEKBOND</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="D2" t="inlineStr"/>
       <c r="E2" t="inlineStr"/>
@@ -468,19 +468,121 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>011045</t>
+          <t>009881</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>CAIXA PASSAGEM PVA 44X35X41 48L LIEGE/MALLTON</t>
+          <t>SPRAY COLOR 350ML BEGE TEKBOND</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D3" t="inlineStr"/>
       <c r="E3" t="inlineStr"/>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>002275</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>SPRAY COLOR 350ML DOURADO TEKBOND</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>2</v>
+      </c>
+      <c r="D4" t="inlineStr"/>
+      <c r="E4" t="inlineStr"/>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>007343</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>SPRAY COLOR 350ML PRETO BRILHANTE ALT TEMP TEKBOND</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>5</v>
+      </c>
+      <c r="D5" t="inlineStr"/>
+      <c r="E5" t="inlineStr"/>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>002003</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>SPRAY COLOR 350ML PRETO BRILHANTE TEKBOND</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>16</v>
+      </c>
+      <c r="D6" t="inlineStr"/>
+      <c r="E6" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>002585</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>SPRAY COLOR 350ML PRETO FOSCO TEKBOND</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>15</v>
+      </c>
+      <c r="D7" t="inlineStr"/>
+      <c r="E7" t="inlineStr"/>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>002007</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>SPRAY COLOR 350ML VERMELHO TEKBOND</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>5</v>
+      </c>
+      <c r="D8" t="inlineStr"/>
+      <c r="E8" t="inlineStr"/>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>003372</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>SPRAY COLOR 350ML VERNIZ TEKBOND</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>7</v>
+      </c>
+      <c r="D9" t="inlineStr"/>
+      <c r="E9" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/static/pedido.xlsx
+++ b/static/pedido.xlsx
@@ -451,16 +451,16 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>002316</t>
+          <t>009356</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>SPRAY COLOR 350ML AZUL ESCURO TEKBOND</t>
+          <t>JANELA ALUM VIDR 2FL 100X100 S/GRAD ESQ/GUT/MME</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="D2" t="inlineStr"/>
       <c r="E2" t="inlineStr"/>
@@ -468,16 +468,16 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>009881</t>
+          <t>012581</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>SPRAY COLOR 350ML BEGE TEKBOND</t>
+          <t>JANELA ALUM VIDR 2FL 1X150 S/GRAD</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D3" t="inlineStr"/>
       <c r="E3" t="inlineStr"/>
@@ -485,16 +485,16 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>002275</t>
+          <t>007183</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>SPRAY COLOR 350ML DOURADO TEKBOND</t>
+          <t>JANELA ALUM VIDRO 2F 1X120 C/GRADE</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D4" t="inlineStr"/>
       <c r="E4" t="inlineStr"/>
@@ -502,16 +502,16 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>007343</t>
+          <t>008283</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>SPRAY COLOR 350ML PRETO BRILHANTE ALT TEMP TEKBOND</t>
+          <t>PORTA ALUM VENEZ 210X66 DIR</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D5" t="inlineStr"/>
       <c r="E5" t="inlineStr"/>
@@ -519,16 +519,16 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>002003</t>
+          <t>009352</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>SPRAY COLOR 350ML PRETO BRILHANTE TEKBOND</t>
+          <t>VITRO BASC 40X40 ALUM VIDR CANEL ESQUAD/GUTEM</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="D6" t="inlineStr"/>
       <c r="E6" t="inlineStr"/>
@@ -536,16 +536,16 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>002585</t>
+          <t>009353</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>SPRAY COLOR 350ML PRETO FOSCO TEKBOND</t>
+          <t>VITRO BASC 40X60 ALUM VIDR LIS ESQUAD/GUTEM</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="D7" t="inlineStr"/>
       <c r="E7" t="inlineStr"/>
@@ -553,16 +553,16 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>002007</t>
+          <t>009354</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>SPRAY COLOR 350ML VERMELHO TEKBOND</t>
+          <t>VITRO BASC 50X50 ALUM VIDR CANEL ESQU</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D8" t="inlineStr"/>
       <c r="E8" t="inlineStr"/>
@@ -570,16 +570,16 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>003372</t>
+          <t>012532</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>SPRAY COLOR 350ML VERNIZ TEKBOND</t>
+          <t>VITRO BASC 50X50 ALUM VIDRO ESQU</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="D9" t="inlineStr"/>
       <c r="E9" t="inlineStr"/>
